--- a/INTLINE/data/534/BSE/BSE Index - Weekly.xlsx
+++ b/INTLINE/data/534/BSE/BSE Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BHR3"/>
+  <dimension ref="A1:BHV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8244,15 +8244,35 @@
       </c>
       <c r="BHP1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="BHQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="BHR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="BHS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="BHT1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BHQ1" s="1" t="inlineStr">
+      <c r="BHU1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BHR1" s="1" t="inlineStr">
+      <c r="BHV1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -12980,19 +13000,31 @@
         <v>17950.06</v>
       </c>
       <c r="BHO2" t="n">
-        <v>18288.83</v>
-      </c>
-      <c r="BHP2" t="inlineStr">
+        <v>17950.06</v>
+      </c>
+      <c r="BHP2" t="n">
+        <v>18195.18</v>
+      </c>
+      <c r="BHQ2" t="n">
+        <v>17951.3</v>
+      </c>
+      <c r="BHR2" t="n">
+        <v>17574.51</v>
+      </c>
+      <c r="BHS2" t="n">
+        <v>17537.73</v>
+      </c>
+      <c r="BHT2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="BHQ2" t="inlineStr">
+      <c r="BHU2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="BHR2" t="inlineStr">
+      <c r="BHV2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -17712,19 +17744,31 @@
         <v>59276.69</v>
       </c>
       <c r="BHO3" t="n">
-        <v>60176.5</v>
-      </c>
-      <c r="BHP3" t="inlineStr">
+        <v>59276.69</v>
+      </c>
+      <c r="BHP3" t="n">
+        <v>59447.18</v>
+      </c>
+      <c r="BHQ3" t="n">
+        <v>58338.93</v>
+      </c>
+      <c r="BHR3" t="n">
+        <v>57060.87</v>
+      </c>
+      <c r="BHS3" t="n">
+        <v>56975.99</v>
+      </c>
+      <c r="BHT3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="BHQ3" t="inlineStr">
+      <c r="BHU3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="BHR3" t="inlineStr">
+      <c r="BHV3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>

--- a/INTLINE/data/534/BSE/BSE Index - Weekly.xlsx
+++ b/INTLINE/data/534/BSE/BSE Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BIC3"/>
+  <dimension ref="A1:BID3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8299,15 +8299,20 @@
       </c>
       <c r="BIA1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="BIB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BIB1" s="1" t="inlineStr">
+      <c r="BIC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BIC1" s="1" t="inlineStr">
+      <c r="BID1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -13068,19 +13073,22 @@
         <v>15562.65</v>
       </c>
       <c r="BHZ2" t="n">
-        <v>15815.94</v>
-      </c>
-      <c r="BIA2" t="inlineStr">
+        <v>15963.31</v>
+      </c>
+      <c r="BIA2" t="n">
+        <v>16143.3</v>
+      </c>
+      <c r="BIB2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="BIB2" t="inlineStr">
+      <c r="BIC2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="BIC2" t="inlineStr">
+      <c r="BID2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -17833,19 +17841,22 @@
         <v>51360.42</v>
       </c>
       <c r="BHZ3" t="n">
-        <v>52186.36</v>
-      </c>
-      <c r="BIA3" t="inlineStr">
+        <v>52727.98</v>
+      </c>
+      <c r="BIA3" t="n">
+        <v>53318.92</v>
+      </c>
+      <c r="BIB3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="BIB3" t="inlineStr">
+      <c r="BIC3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="BIC3" t="inlineStr">
+      <c r="BID3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>
